--- a/gzl_reporte/report/FormatoOS.xlsx
+++ b/gzl_reporte/report/FormatoOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E8362E-9508-4400-A193-12F5D1A16417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B92100-DEB5-47AE-AF20-43D818B06769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7155" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrdenSalida" sheetId="5" r:id="rId1"/>
@@ -56,10 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Dirección:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Guayaquil,</t>
   </si>
@@ -79,12 +76,6 @@
     <t>Cedula:</t>
   </si>
   <si>
-    <t>Celular:</t>
-  </si>
-  <si>
-    <t>DATOS DEL BIEN</t>
-  </si>
-  <si>
     <t>MARCA</t>
   </si>
   <si>
@@ -109,7 +100,13 @@
     <t>MOTOR</t>
   </si>
   <si>
-    <t>GERENTE DE OPERACIONES</t>
+    <t>COBERTURA SEGURO</t>
+  </si>
+  <si>
+    <t>VIGENCIA RASTREO</t>
+  </si>
+  <si>
+    <t>GERENTE FINANCIERO</t>
   </si>
 </sst>
 </file>
@@ -117,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0000000000"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0000000000"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -156,18 +153,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -191,37 +182,34 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -603,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC41FE2E-B018-48AC-B752-D621F16E51EB}">
   <dimension ref="B7:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -617,18 +605,18 @@
   <sheetData>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <f ca="1">TODAY()</f>
-        <v>44841</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+        <v>44902</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -636,21 +624,21 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -660,76 +648,102 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -737,7 +751,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -745,19 +759,27 @@
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>17</v>
+      <c r="B42" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B23:F23"/>
+  <mergeCells count="15">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/gzl_reporte/report/FormatoOS.xlsx
+++ b/gzl_reporte/report/FormatoOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gizlocorp\promoautoecuador\gzl_reporte\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B92100-DEB5-47AE-AF20-43D818B06769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E669A0-C4EB-441F-BEA2-C63E8F890BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="7155" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrdenSalida" sheetId="5" r:id="rId1"/>
@@ -186,12 +186,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -202,14 +208,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC41FE2E-B018-48AC-B752-D621F16E51EB}">
   <dimension ref="B7:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D18:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -607,12 +610,12 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <f ca="1">TODAY()</f>
         <v>44902</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -628,114 +631,114 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
@@ -759,27 +762,27 @@
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
